--- a/tps-base/dev/mission-new.xlsx
+++ b/tps-base/dev/mission-new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -50,9 +50,6 @@
     <t>gameModes</t>
   </si>
   <si>
-    <t>weapons</t>
-  </si>
-  <si>
     <t>SETTLED</t>
   </si>
   <si>
@@ -71,7 +68,7 @@
     <t>[]</t>
   </si>
   <si>
-    <t>["1", "2"]</t>
+    <t>[1, 2]</t>
   </si>
   <si>
     <t>GOAL</t>
@@ -105,21 +102,6 @@
   </si>
   <si>
     <t>goal, [weapon_types_kill_count &gt;= 5]</t>
-  </si>
-  <si>
-    <t>["2", "4"]</t>
-  </si>
-  <si>
-    <t>["3"]</t>
-  </si>
-  <si>
-    <t>["5"]</t>
-  </si>
-  <si>
-    <t>["6"]</t>
-  </si>
-  <si>
-    <t>["7"]</t>
   </si>
   <si>
     <t>goal, [weapon_types_kill_count &gt;= 20]</t>
@@ -279,7 +261,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,13 +272,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -764,48 +739,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,97 +793,94 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1261,10 +1236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1280,7 +1255,7 @@
     <col min="11" max="11" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1314,54 +1289,48 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1370,36 +1339,33 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
       </c>
       <c r="I3">
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1408,36 +1374,33 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4">
         <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1446,36 +1409,33 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
       </c>
       <c r="I5">
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1484,36 +1444,33 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6">
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1522,36 +1479,33 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1560,36 +1514,33 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
         <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
       </c>
       <c r="I8">
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1598,36 +1549,33 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
         <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1636,36 +1584,33 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
         <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
       </c>
       <c r="I10">
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1674,36 +1619,33 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
         <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
       </c>
       <c r="I11">
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1712,36 +1654,33 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
         <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
       </c>
       <c r="I12">
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1750,36 +1689,33 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I13">
         <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1788,36 +1724,33 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I14">
         <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1826,36 +1759,33 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I15">
         <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1864,36 +1794,33 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I16">
         <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>1016</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1902,36 +1829,33 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I17">
         <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>1017</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1940,36 +1864,33 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I18">
         <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>1018</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1978,36 +1899,33 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I19">
         <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>1019</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -2016,36 +1934,33 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I20">
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>1020</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -2054,36 +1969,33 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I21">
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>1021</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -2092,74 +2004,68 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I22">
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>1022</v>
       </c>
       <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>13</v>
       </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I23">
         <v>3000</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>1023</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -2168,36 +2074,33 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <v>10000</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>1024</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -2206,36 +2109,33 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I25">
         <v>40000</v>
       </c>
       <c r="J25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>1025</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -2244,36 +2144,33 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I26">
         <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>1026</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -2282,36 +2179,33 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I27">
         <v>15000</v>
       </c>
       <c r="J27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>18</v>
-      </c>
-      <c r="L27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>1027</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -2320,36 +2214,33 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" t="s">
         <v>39</v>
-      </c>
-      <c r="H28" t="s">
-        <v>45</v>
       </c>
       <c r="I28">
         <v>5</v>
       </c>
       <c r="J28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>1028</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -2358,36 +2249,33 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I29">
         <v>5000</v>
       </c>
       <c r="J29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>1029</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -2396,36 +2284,33 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I30">
         <v>5000</v>
       </c>
       <c r="J30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>1030</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -2434,36 +2319,33 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I31">
         <v>5000</v>
       </c>
       <c r="J31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>1031</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -2472,36 +2354,33 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I32">
         <v>5000</v>
       </c>
       <c r="J32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>1032</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -2510,36 +2389,33 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I33">
         <v>5000</v>
       </c>
       <c r="J33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>1033</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -2548,36 +2424,33 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I34">
         <v>20000</v>
       </c>
       <c r="J34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>1034</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -2586,36 +2459,33 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I35">
         <v>20000</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K35" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>1035</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -2624,36 +2494,33 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I36">
         <v>20000</v>
       </c>
       <c r="J36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K36" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>1036</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -2662,36 +2529,33 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I37">
         <v>20000</v>
       </c>
       <c r="J37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K37" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>1037</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -2700,36 +2564,33 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I38">
         <v>20000</v>
       </c>
       <c r="J38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>1038</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -2738,36 +2599,33 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I39">
         <v>10000</v>
       </c>
       <c r="J39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>1039</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -2776,36 +2634,33 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H40" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I40">
         <v>10000</v>
       </c>
       <c r="J40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K40" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>1040</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -2814,36 +2669,33 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I41">
         <v>10000</v>
       </c>
       <c r="J41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K41" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>1041</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -2852,36 +2704,33 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I42">
         <v>10000</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K42" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>1042</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -2890,36 +2739,33 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I43">
         <v>10000</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K43" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>1043</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -2928,36 +2774,33 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I44">
         <v>2500</v>
       </c>
       <c r="J44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>1044</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -2966,36 +2809,33 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I45">
         <v>8000</v>
       </c>
       <c r="J45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>1045</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -3004,36 +2844,33 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H46" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I46">
         <v>10</v>
       </c>
       <c r="J46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K46" t="s">
-        <v>18</v>
-      </c>
-      <c r="L46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>1046</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -3042,74 +2879,68 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H47" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I47">
         <v>4000</v>
       </c>
       <c r="J47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K47" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>1047</v>
       </c>
       <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
         <v>12</v>
       </c>
-      <c r="C48" t="b">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>13</v>
       </c>
-      <c r="F48" t="s">
-        <v>14</v>
-      </c>
       <c r="G48" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I48">
         <v>25</v>
       </c>
       <c r="J48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K48" t="s">
-        <v>18</v>
-      </c>
-      <c r="L48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>1048</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -3118,36 +2949,33 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I49">
         <v>60</v>
       </c>
       <c r="J49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K49" t="s">
-        <v>18</v>
-      </c>
-      <c r="L49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>1049</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -3156,36 +2984,33 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I50">
         <v>200</v>
       </c>
       <c r="J50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K50" t="s">
-        <v>18</v>
-      </c>
-      <c r="L50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>1050</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -3194,36 +3019,33 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I51">
         <v>10</v>
       </c>
       <c r="J51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>1051</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -3232,36 +3054,33 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" t="s">
         <v>56</v>
-      </c>
-      <c r="H52" t="s">
-        <v>62</v>
       </c>
       <c r="I52">
         <v>100</v>
       </c>
       <c r="J52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K52" t="s">
-        <v>18</v>
-      </c>
-      <c r="L52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>1052</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -3270,74 +3089,68 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I53">
         <v>5</v>
       </c>
       <c r="J53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K53" t="s">
-        <v>18</v>
-      </c>
-      <c r="L53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>1053</v>
       </c>
       <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
         <v>12</v>
       </c>
-      <c r="C54" t="b">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>13</v>
       </c>
-      <c r="F54" t="s">
-        <v>14</v>
-      </c>
       <c r="G54" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H54" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I54">
         <v>120</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K54" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>1054</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -3346,36 +3159,33 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H55" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I55">
         <v>1440</v>
       </c>
       <c r="J55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K55" t="s">
-        <v>18</v>
-      </c>
-      <c r="L55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>1055</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -3384,36 +3194,33 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H56" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I56">
         <v>1200</v>
       </c>
       <c r="J56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K56" t="s">
-        <v>18</v>
-      </c>
-      <c r="L56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>1056</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -3422,36 +3229,33 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G57" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H57" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I57">
         <v>10</v>
       </c>
       <c r="J57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K57" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>1057</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -3460,36 +3264,33 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G58" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H58" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I58">
         <v>5</v>
       </c>
       <c r="J58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K58" t="s">
-        <v>18</v>
-      </c>
-      <c r="L58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>1058</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -3498,36 +3299,33 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H59" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I59">
         <v>1200</v>
       </c>
       <c r="J59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K59" t="s">
-        <v>18</v>
-      </c>
-      <c r="L59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>1059</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
@@ -3536,36 +3334,33 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H60" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I60">
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K60" t="s">
-        <v>17</v>
-      </c>
-      <c r="L60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>1060</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
@@ -3574,36 +3369,33 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H61" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I61">
         <v>12</v>
       </c>
       <c r="J61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K61" t="s">
-        <v>17</v>
-      </c>
-      <c r="L61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>1061</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -3612,36 +3404,33 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H62" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I62">
         <v>6</v>
       </c>
       <c r="J62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K62" t="s">
-        <v>17</v>
-      </c>
-      <c r="L62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>1062</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
@@ -3650,36 +3439,33 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G63" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I63">
         <v>12</v>
       </c>
       <c r="J63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K63" t="s">
-        <v>18</v>
-      </c>
-      <c r="L63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>1063</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -3688,36 +3474,33 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G64" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H64" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I64">
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K64" t="s">
-        <v>18</v>
-      </c>
-      <c r="L64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>1064</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -3726,36 +3509,33 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G65" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I65">
         <v>6</v>
       </c>
       <c r="J65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K65" t="s">
-        <v>17</v>
-      </c>
-      <c r="L65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>1065</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
@@ -3764,36 +3544,33 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F66" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G66" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I66">
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K66" t="s">
-        <v>17</v>
-      </c>
-      <c r="L66" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>1066</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
@@ -3802,28 +3579,25 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G67" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67" t="s">
         <v>77</v>
-      </c>
-      <c r="H67" t="s">
-        <v>83</v>
       </c>
       <c r="I67">
         <v>5</v>
       </c>
       <c r="J67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K67" t="s">
-        <v>17</v>
-      </c>
-      <c r="L67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/tps-base/dev/mission-new.xlsx
+++ b/tps-base/dev/mission-new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +50,9 @@
     <t>gameModes</t>
   </si>
   <si>
+    <t>heroLimit</t>
+  </si>
+  <si>
     <t>SETTLED</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
   </si>
   <si>
     <t>goal, [kill_count &gt;= 15]</t>
+  </si>
+  <si>
+    <t>[1,3]</t>
   </si>
   <si>
     <t>goal, [kill_count &gt;= 36]</t>
@@ -1236,10 +1242,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1253,9 +1259,10 @@
     <col min="9" max="9" width="42.125" customWidth="1"/>
     <col min="10" max="10" width="36" customWidth="1"/>
     <col min="11" max="11" width="74" customWidth="1"/>
+    <col min="12" max="12" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,13 +1296,16 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1304,33 +1314,36 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2">
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1339,33 +1352,36 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3">
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1374,33 +1390,36 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4">
         <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1409,33 +1428,36 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5">
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1444,33 +1466,36 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I6">
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1479,33 +1504,36 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I7">
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1514,33 +1542,36 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1549,33 +1580,36 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1584,33 +1618,36 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I10">
         <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1619,33 +1656,36 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I11">
         <v>5</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1654,33 +1694,36 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I12">
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1689,33 +1732,36 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I13">
         <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1724,33 +1770,36 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I14">
         <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1759,33 +1808,36 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I15">
         <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1794,33 +1846,36 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I16">
         <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>1016</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1829,33 +1884,36 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I17">
         <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>1017</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1864,33 +1922,36 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I18">
         <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>1018</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1899,33 +1960,36 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I19">
         <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>1019</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -1934,33 +1998,36 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I20">
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>1020</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1969,33 +2036,36 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I21">
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>1021</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -2004,33 +2074,36 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I22">
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>1022</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -2039,33 +2112,36 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <v>3000</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>1023</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -2074,33 +2150,36 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I24">
         <v>10000</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>1024</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -2109,33 +2188,36 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I25">
         <v>40000</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>1025</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -2144,33 +2226,36 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I26">
         <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>1026</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -2179,33 +2264,36 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I27">
         <v>15000</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>1027</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -2214,33 +2302,36 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I28">
         <v>5</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>1028</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -2249,33 +2340,36 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I29">
         <v>5000</v>
       </c>
       <c r="J29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>1029</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -2284,33 +2378,36 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I30">
         <v>5000</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>1030</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -2319,33 +2416,36 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I31">
         <v>5000</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>1031</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -2354,33 +2454,36 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I32">
         <v>5000</v>
       </c>
       <c r="J32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>1032</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -2389,33 +2492,36 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I33">
         <v>5000</v>
       </c>
       <c r="J33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>1033</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -2424,33 +2530,36 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I34">
         <v>20000</v>
       </c>
       <c r="J34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>1034</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -2459,33 +2568,36 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I35">
         <v>20000</v>
       </c>
       <c r="J35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>1035</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -2494,33 +2606,36 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I36">
         <v>20000</v>
       </c>
       <c r="J36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>1036</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -2529,33 +2644,36 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I37">
         <v>20000</v>
       </c>
       <c r="J37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>1037</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -2564,33 +2682,36 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I38">
         <v>20000</v>
       </c>
       <c r="J38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>1038</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -2599,33 +2720,36 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I39">
         <v>10000</v>
       </c>
       <c r="J39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>1039</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -2634,33 +2758,36 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I40">
         <v>10000</v>
       </c>
       <c r="J40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>1040</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -2669,33 +2796,36 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I41">
         <v>10000</v>
       </c>
       <c r="J41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>1041</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -2704,33 +2834,36 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I42">
         <v>10000</v>
       </c>
       <c r="J42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>1042</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -2739,33 +2872,36 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I43">
         <v>10000</v>
       </c>
       <c r="J43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>1043</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -2774,33 +2910,36 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I44">
         <v>2500</v>
       </c>
       <c r="J44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>1044</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -2809,33 +2948,36 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I45">
         <v>8000</v>
       </c>
       <c r="J45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>1045</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -2844,33 +2986,36 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I46">
         <v>10</v>
       </c>
       <c r="J46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>1046</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -2879,33 +3024,36 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I47">
         <v>4000</v>
       </c>
       <c r="J47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>1047</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -2914,33 +3062,36 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I48">
         <v>25</v>
       </c>
       <c r="J48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>1048</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -2949,33 +3100,36 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I49">
         <v>60</v>
       </c>
       <c r="J49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>1049</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -2984,33 +3138,36 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I50">
         <v>200</v>
       </c>
       <c r="J50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>1050</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -3019,33 +3176,36 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I51">
         <v>10</v>
       </c>
       <c r="J51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>1051</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -3054,33 +3214,36 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I52">
         <v>100</v>
       </c>
       <c r="J52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>1052</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -3089,33 +3252,36 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H53" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I53">
         <v>5</v>
       </c>
       <c r="J53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>1053</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
@@ -3124,33 +3290,36 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I54">
         <v>120</v>
       </c>
       <c r="J54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>1054</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -3159,33 +3328,36 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I55">
         <v>1440</v>
       </c>
       <c r="J55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>1055</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -3194,33 +3366,36 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I56">
         <v>1200</v>
       </c>
       <c r="J56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>1056</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -3229,33 +3404,36 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I57">
         <v>10</v>
       </c>
       <c r="J57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>1057</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -3264,33 +3442,36 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I58">
         <v>5</v>
       </c>
       <c r="J58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>1058</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -3299,33 +3480,36 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I59">
         <v>1200</v>
       </c>
       <c r="J59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>1059</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
@@ -3334,33 +3518,36 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I60">
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K60" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>17</v>
+      </c>
+      <c r="L60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>1060</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
@@ -3369,33 +3556,36 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I61">
         <v>12</v>
       </c>
       <c r="J61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>17</v>
+      </c>
+      <c r="L61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>1061</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -3404,33 +3594,36 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I62">
         <v>6</v>
       </c>
       <c r="J62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>17</v>
+      </c>
+      <c r="L62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>1062</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
@@ -3439,33 +3632,36 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G63" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H63" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I63">
         <v>12</v>
       </c>
       <c r="J63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>1063</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -3474,33 +3670,36 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G64" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H64" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I64">
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>18</v>
+      </c>
+      <c r="L64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>1064</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -3509,33 +3708,36 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H65" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I65">
         <v>6</v>
       </c>
       <c r="J65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>17</v>
+      </c>
+      <c r="L65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>1065</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
@@ -3544,33 +3746,36 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H66" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I66">
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>17</v>
+      </c>
+      <c r="L66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>1066</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
@@ -3579,25 +3784,28 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G67" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H67" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I67">
         <v>5</v>
       </c>
       <c r="J67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K67" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L67" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tps-base/dev/mission-new.xlsx
+++ b/tps-base/dev/mission-new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -59,13 +59,214 @@
     <t>AIM</t>
   </si>
   <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>aimOfKillCount</t>
+  </si>
+  <si>
+    <t>aim, [kill_count &gt;= 3]</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>aimOfKillCount</t>
-  </si>
-  <si>
-    <t>aim, [kill_count &gt;= 3]</t>
+    <t>[1, 2]</t>
+  </si>
+  <si>
+    <t>GOAL</t>
+  </si>
+  <si>
+    <t>{"accumulated": "true"}</t>
+  </si>
+  <si>
+    <t>goalOfKillCount</t>
+  </si>
+  <si>
+    <t>goal, [kill_count &gt;= 15]</t>
+  </si>
+  <si>
+    <t>goal, [kill_count &gt;= 36]</t>
+  </si>
+  <si>
+    <t>{"aim": "3"}</t>
+  </si>
+  <si>
+    <t>goal, [kill_count &gt;= 3] x 8</t>
+  </si>
+  <si>
+    <t>goal, [kill_count &gt;= 25]</t>
+  </si>
+  <si>
+    <t>goal, [kill_count &gt;= 3] x 5</t>
+  </si>
+  <si>
+    <t>goalOfWeaponTypesKillCount</t>
+  </si>
+  <si>
+    <t>goal, [weapon_types_kill_count &gt;= 5]</t>
+  </si>
+  <si>
+    <t>[2, 4]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>goal, [weapon_types_kill_count &gt;= 20]</t>
+  </si>
+  <si>
+    <t>goal, [weapon_types_kill_count &gt;= 10]</t>
+  </si>
+  <si>
+    <t>aimOfHarm</t>
+  </si>
+  <si>
+    <t>aim, [harm &gt;= 3000]</t>
+  </si>
+  <si>
+    <t>goalOfHarm</t>
+  </si>
+  <si>
+    <t>goal, [harm &gt;= 10000]</t>
+  </si>
+  <si>
+    <t>goal, [harm &gt;= 40000]</t>
+  </si>
+  <si>
+    <t>{"aim": "3000"}</t>
+  </si>
+  <si>
+    <t>goal, [harm &gt;= 3000] x 10</t>
+  </si>
+  <si>
+    <t>goal, [harm &gt;= 15000]</t>
+  </si>
+  <si>
+    <t>goal, [harm &gt;= 3000] x 5</t>
+  </si>
+  <si>
+    <t>goalOfWeaponTypesHarm</t>
+  </si>
+  <si>
+    <t>goal, [weapon_types_harm &gt;= 5000]</t>
+  </si>
+  <si>
+    <t>goal, [weapon_types_harm &gt;= 20000]</t>
+  </si>
+  <si>
+    <t>goal, [weapon_types_harm &gt;= 10000]</t>
+  </si>
+  <si>
+    <t>goalOfCure</t>
+  </si>
+  <si>
+    <t>goal, [cure &gt;= 2500]</t>
+  </si>
+  <si>
+    <t>goal, [cure &gt;= 8000]</t>
+  </si>
+  <si>
+    <t>{"aim": "1000"}</t>
+  </si>
+  <si>
+    <t>goal, [cure &gt;= 1000] x 10</t>
+  </si>
+  <si>
+    <t>goal, [cure &gt;= 4000]</t>
+  </si>
+  <si>
+    <t>aimOfPickCount</t>
+  </si>
+  <si>
+    <t>aim, [pick_count &gt;= 25]</t>
+  </si>
+  <si>
+    <t>goal, [pick_count &gt;= 60]</t>
+  </si>
+  <si>
+    <t>goal, [pick_count &gt;= 200]</t>
+  </si>
+  <si>
+    <t>{"aim": "25"}</t>
+  </si>
+  <si>
+    <t>goal, [pick_count &gt;= 25] x 10</t>
+  </si>
+  <si>
+    <t>goal, [pick_count &gt;= 100]</t>
+  </si>
+  <si>
+    <t>goal, [pick_count &gt;= 25] x 5</t>
+  </si>
+  <si>
+    <t>aimOfSurvivalTime</t>
+  </si>
+  <si>
+    <t>aim, [survival_time(s) &gt;= 120]</t>
+  </si>
+  <si>
+    <t>goalOfSurvivalTime</t>
+  </si>
+  <si>
+    <t>goal, [survival_time(s) &gt;= 1440]</t>
+  </si>
+  <si>
+    <t>goal, [survival_time(s) &gt;= 1200]</t>
+  </si>
+  <si>
+    <t>{"aim": "200"}</t>
+  </si>
+  <si>
+    <t>goal, [survival_time(s) &gt;= 200] x 10</t>
+  </si>
+  <si>
+    <t>goal, [survival_time(s) &gt;= 200] x 5</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>goal, [battle &gt;= 3]</t>
+  </si>
+  <si>
+    <t>goal, [battle &gt;= 12]</t>
+  </si>
+  <si>
+    <t>goal, [battle &gt;= 6]</t>
+  </si>
+  <si>
+    <t>{"aim": "8"}</t>
+  </si>
+  <si>
+    <t>goalOfTop</t>
+  </si>
+  <si>
+    <t>goal, [rank &lt;= 8] x12</t>
+  </si>
+  <si>
+    <t>goal, [rank &lt;= 3] x 3</t>
+  </si>
+  <si>
+    <t>goal, [rank &lt;= 3] x 6</t>
+  </si>
+  <si>
+    <t>{"aim": "1"}</t>
+  </si>
+  <si>
+    <t>goal, [rank &lt;= 1] x 5</t>
+  </si>
+  <si>
+    <t>goal, [rank &lt;= 3] x 5</t>
   </si>
 </sst>
 </file>
@@ -78,7 +279,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +290,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -556,51 +764,48 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -610,103 +815,105 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1053,24 +1260,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="49.75" customWidth="1"/>
-    <col min="7" max="7" width="57.75" customWidth="1"/>
-    <col min="8" max="8" width="42" customWidth="1"/>
-    <col min="9" max="9" width="42.125" customWidth="1"/>
-    <col min="10" max="10" width="36" customWidth="1"/>
-    <col min="11" max="11" width="74" customWidth="1"/>
-    <col min="12" max="12" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="59.375" customWidth="1"/>
+    <col min="7" max="7" width="57.25" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1121,7 +1321,7 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -1140,13 +1340,2483 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>1010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>1011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>1012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>1013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>1014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>1015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>1016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>1017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>1018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>1019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>1020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>1021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>1022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23">
+        <v>3000</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>1023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24">
+        <v>10000</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>1024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25">
+        <v>40000</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>1025</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>1026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27">
+        <v>15000</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>1027</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>1028</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29">
+        <v>5000</v>
+      </c>
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>1029</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30">
+        <v>5000</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>1030</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31">
+        <v>5000</v>
+      </c>
+      <c r="J31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>1031</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32">
+        <v>5000</v>
+      </c>
+      <c r="J32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>1032</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33">
+        <v>5000</v>
+      </c>
+      <c r="J33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>1033</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34">
+        <v>20000</v>
+      </c>
+      <c r="J34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>1034</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35">
+        <v>20000</v>
+      </c>
+      <c r="J35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>1035</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36">
+        <v>20000</v>
+      </c>
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>1036</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37">
+        <v>20000</v>
+      </c>
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>1037</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38">
+        <v>20000</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>1038</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39">
+        <v>10000</v>
+      </c>
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>1039</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40">
+        <v>10000</v>
+      </c>
+      <c r="J40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>1040</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41">
+        <v>10000</v>
+      </c>
+      <c r="J41" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>1041</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42">
+        <v>10000</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>1042</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43">
+        <v>10000</v>
+      </c>
+      <c r="J43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>1043</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44">
+        <v>2500</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>1044</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45">
+        <v>8000</v>
+      </c>
+      <c r="J45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>1045</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" t="s">
+        <v>54</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>1046</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47">
+        <v>4000</v>
+      </c>
+      <c r="J47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>1047</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="G48" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48">
+        <v>25</v>
+      </c>
+      <c r="J48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>1048</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49">
+        <v>60</v>
+      </c>
+      <c r="J49" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>1049</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50">
+        <v>200</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>1050</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>1051</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52">
+        <v>100</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>1052</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" t="s">
+        <v>63</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>1053</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
         <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>64</v>
+      </c>
+      <c r="H54" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54">
+        <v>120</v>
+      </c>
+      <c r="J54" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>1054</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" t="s">
+        <v>67</v>
+      </c>
+      <c r="I55">
+        <v>1440</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>1055</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" t="s">
+        <v>68</v>
+      </c>
+      <c r="I56">
+        <v>1200</v>
+      </c>
+      <c r="J56" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>1056</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" t="s">
+        <v>66</v>
+      </c>
+      <c r="H57" t="s">
+        <v>70</v>
+      </c>
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>1057</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" t="s">
+        <v>66</v>
+      </c>
+      <c r="H58" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>1058</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59">
+        <v>1200</v>
+      </c>
+      <c r="J59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>1059</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s">
+        <v>73</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>1060</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s">
+        <v>74</v>
+      </c>
+      <c r="I61">
+        <v>12</v>
+      </c>
+      <c r="J61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>1061</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" t="s">
+        <v>75</v>
+      </c>
+      <c r="I62">
+        <v>6</v>
+      </c>
+      <c r="J62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>1062</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G63" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s">
+        <v>78</v>
+      </c>
+      <c r="I63">
+        <v>12</v>
+      </c>
+      <c r="J63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>1063</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s">
+        <v>79</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>1064</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s">
+        <v>80</v>
+      </c>
+      <c r="I65">
+        <v>6</v>
+      </c>
+      <c r="J65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>1065</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>1066</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s">
+        <v>83</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
